--- a/input_signals.xlsx
+++ b/input_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inver\OneDrive\Desktop\Vehicle Controller Files 8_31_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7DC8D-C9E8-4159-AB99-FACD357F1857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602AE62-52C9-4035-AB93-B267CC74DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF02C6E6-7C03-4F57-88F0-FD147FC419EC}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>driver_input</t>
-  </si>
-  <si>
-    <t>batt_temp</t>
   </si>
   <si>
     <t>steering_angle</t>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>b_RR</t>
+  </si>
+  <si>
+    <t>batt_temp</t>
+  </si>
+  <si>
+    <t>P_A</t>
   </si>
 </sst>
 </file>
@@ -418,56 +421,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44C769-8558-4087-85EA-24BCEBF1A080}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -475,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -501,8 +508,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -510,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>300</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -536,22 +546,25 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D4">
-        <v>0.02</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -571,22 +584,25 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -606,22 +622,25 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D6">
-        <v>0.04</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -641,22 +660,25 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -676,22 +698,25 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D8">
-        <v>0.06</v>
+        <v>300</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -711,22 +736,25 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D9">
-        <v>7.0000000000000007E-2</v>
+        <v>300</v>
       </c>
       <c r="E9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -746,22 +774,25 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
+        <v>300</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -781,22 +812,25 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>300</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -816,22 +850,25 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>300</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -851,22 +888,25 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D13">
-        <v>0.11</v>
+        <v>300</v>
       </c>
       <c r="E13">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -886,22 +926,25 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -921,22 +964,25 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D15">
-        <v>0.13</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -956,22 +1002,25 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D16">
-        <v>0.14000000000000001</v>
+        <v>300</v>
       </c>
       <c r="E16">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -991,22 +1040,25 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D17">
-        <v>0.15</v>
+        <v>300</v>
       </c>
       <c r="E17">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1026,22 +1078,25 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D18">
-        <v>0.16</v>
+        <v>300</v>
       </c>
       <c r="E18">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1061,22 +1116,25 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D19">
-        <v>0.17</v>
+        <v>300</v>
       </c>
       <c r="E19">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1096,22 +1154,25 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="D20">
-        <v>0.18</v>
+        <v>300</v>
       </c>
       <c r="E20">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1131,39 +1192,1603 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>300</v>
-      </c>
-      <c r="D21">
-        <v>0.19</v>
-      </c>
-      <c r="E21">
-        <v>1.2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>60000</v>
+      </c>
+      <c r="D23">
+        <v>300</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>60000</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>60000</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>60000</v>
+      </c>
+      <c r="D27">
+        <v>300</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>60000</v>
+      </c>
+      <c r="D28">
+        <v>300</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>60000</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>60000</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>60000</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>60000</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>60000</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>60000</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>60000</v>
+      </c>
+      <c r="D36">
+        <v>300</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>60000</v>
+      </c>
+      <c r="D37">
+        <v>300</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>60000</v>
+      </c>
+      <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>60000</v>
+      </c>
+      <c r="D39">
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
+      </c>
+      <c r="D40">
+        <v>300</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>60000</v>
+      </c>
+      <c r="D41">
+        <v>300</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>60000</v>
+      </c>
+      <c r="D42">
+        <v>300</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>60000</v>
+      </c>
+      <c r="D43">
+        <v>300</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>60000</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>60000</v>
+      </c>
+      <c r="D45">
+        <v>300</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>60000</v>
+      </c>
+      <c r="D46">
+        <v>300</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>60000</v>
+      </c>
+      <c r="D47">
+        <v>300</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>60000</v>
+      </c>
+      <c r="D49">
+        <v>300</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>60000</v>
+      </c>
+      <c r="D50">
+        <v>300</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>60000</v>
+      </c>
+      <c r="D51">
+        <v>300</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>60000</v>
+      </c>
+      <c r="D52">
+        <v>300</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>60000</v>
+      </c>
+      <c r="D53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>60000</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>60000</v>
+      </c>
+      <c r="D55">
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>60000</v>
+      </c>
+      <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>60000</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>60000</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>60000</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>60000</v>
+      </c>
+      <c r="D60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>60000</v>
+      </c>
+      <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>60000</v>
+      </c>
+      <c r="D62">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>0</v>
       </c>
     </row>
